--- a/Piano di Progetto/Preventivo/AnalisiRequisitiDettaglio.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/AnalisiRequisitiDettaglio.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F51BC-8098-4450-AC96-6D91D94E41FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C473BA-3950-42C7-A6C8-89E6CB4B0734}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Ruolo</t>
   </si>
@@ -255,6 +255,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4B2A-47E9-9561-811B0006CCE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -272,6 +277,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4B2A-47E9-9561-811B0006CCE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -289,6 +299,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4B2A-47E9-9561-811B0006CCE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -306,6 +321,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4B2A-47E9-9561-811B0006CCE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1326,7 +1346,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,8 +1396,8 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
+      <c r="C4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1399,8 +1419,8 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
+      <c r="C6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Piano di Progetto/Preventivo/AnalisiRequisitiDettaglio.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/AnalisiRequisitiDettaglio.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C473BA-3950-42C7-A6C8-89E6CB4B0734}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB18E70-25F0-4CE5-BF71-D28F7827AE16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -336,13 +336,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -467,7 +465,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -1346,7 +1344,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
